--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1688098.535794738</v>
+        <v>1763628.205459544</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>170.9636435005512</v>
+        <v>314.6757550035595</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,13 +715,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>140.1997601007687</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>163.4435927426897</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>322.1356489030802</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>48.85466508935351</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>141.3865903334047</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>131.7751099185635</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>148.3720633136144</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>290.5286403308944</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>72.65793777463499</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>66.17512620685359</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>213.4998989363458</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>174.3062600431766</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>140.5678108961688</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>60.25574836862782</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>154.5075768486611</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2135,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>46.90175579878738</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2253,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>135.778987780423</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.0455722272031</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>169.7572882889411</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>14.73664328357096</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002187</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>148.7416974947177</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>43.70733080350767</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>85.61718991080046</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>256.111763886877</v>
+        <v>207.6951870029959</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3667,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3715,13 +3717,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>123.5489570371489</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>36.29747936996331</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>161.817511795895</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>110.1707519847953</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>51.05128531542918</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1487.242648509747</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1118.280131569335</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1118.280131569335</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>1118.280131569335</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>707.2942267797278</v>
+        <v>525.2632558086682</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1873.842488573869</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1873.842488573869</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.334734821698</v>
+        <v>1117.513150920515</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>1117.513150920515</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>1117.513150920515</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>1117.513150920515</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>706.5272461309073</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2647.80094446332</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2647.80094446332</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2429.166277435383</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2429.166277435383</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2098.103390091812</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1745.334734821698</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>1745.334734821698</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y5" t="n">
-        <v>1745.334734821698</v>
+        <v>1117.513150920515</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4656,10 +4658,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4683,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>365.6939024587812</v>
+        <v>565.6058934251438</v>
       </c>
       <c r="C7" t="n">
-        <v>196.7577195308743</v>
+        <v>565.6058934251438</v>
       </c>
       <c r="D7" t="n">
-        <v>196.7577195308743</v>
+        <v>415.489254012808</v>
       </c>
       <c r="E7" t="n">
-        <v>196.7577195308743</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>196.7577195308743</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587812</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587812</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>365.6939024587812</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>365.6939024587812</v>
+        <v>565.6058934251438</v>
       </c>
       <c r="W7" t="n">
-        <v>365.6939024587812</v>
+        <v>565.6058934251438</v>
       </c>
       <c r="X7" t="n">
-        <v>365.6939024587812</v>
+        <v>565.6058934251438</v>
       </c>
       <c r="Y7" t="n">
-        <v>365.6939024587812</v>
+        <v>565.6058934251438</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1899.21241430279</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>1899.21241430279</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1562.144220371539</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1176.355967773295</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>765.3700629836871</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>347.406254881874</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278602</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.351746278602</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.21241430279</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4886,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036446</v>
@@ -4987,25 +4989,25 @@
         <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="W10" t="n">
-        <v>625.3202087220412</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,16 +5059,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262063</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>972.2646934632137</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
         <v>972.2646934632137</v>
@@ -5194,25 +5196,25 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>972.2646934632137</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>972.2646934632137</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>972.2646934632137</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>972.2646934632137</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>972.2646934632137</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>972.2646934632137</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5288,37 +5290,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5352,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110095</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555221</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>891.440640161986</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632138</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="D16" t="n">
-        <v>822.148054050878</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684849</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
         <v>359.1696912903951</v>
@@ -5431,25 +5433,25 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>964.1357418247858</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5510,19 +5512,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5534,10 +5536,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>358.8683222506741</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="C19" t="n">
-        <v>358.8683222506741</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V19" t="n">
-        <v>829.9339571178743</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W19" t="n">
-        <v>540.5167870809138</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="X19" t="n">
-        <v>540.5167870809138</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="Y19" t="n">
-        <v>540.5167870809138</v>
+        <v>420.0340835819383</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5747,13 +5749,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>441.900558318119</v>
+        <v>4230.423978142505</v>
       </c>
       <c r="C22" t="n">
-        <v>441.900558318119</v>
+        <v>4061.487795214598</v>
       </c>
       <c r="D22" t="n">
-        <v>394.5250474102529</v>
+        <v>3911.371155802262</v>
       </c>
       <c r="E22" t="n">
-        <v>394.5250474102529</v>
+        <v>3911.371155802262</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>3764.481208304352</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>3596.305886624173</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="X22" t="n">
-        <v>441.900558318119</v>
+        <v>4632.865022116274</v>
       </c>
       <c r="Y22" t="n">
-        <v>441.900558318119</v>
+        <v>4412.072442972744</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,67 +5974,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>528.105874218302</v>
+        <v>4391.604587469458</v>
       </c>
       <c r="C25" t="n">
-        <v>359.1696912903951</v>
+        <v>4222.668404541551</v>
       </c>
       <c r="D25" t="n">
-        <v>359.1696912903951</v>
+        <v>4072.551765129215</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>3924.638671546822</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4615.390002679953</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>4391.604587469458</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>4391.604587469458</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>4391.604587469458</v>
       </c>
       <c r="W25" t="n">
-        <v>920.3704617344999</v>
+        <v>4391.604587469458</v>
       </c>
       <c r="X25" t="n">
-        <v>748.8984533618321</v>
+        <v>4391.604587469458</v>
       </c>
       <c r="Y25" t="n">
-        <v>528.105874218302</v>
+        <v>4391.604587469458</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,16 +6238,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6269,7 +6271,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>3033.644633014775</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>3340.964766294737</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>3670.82739395877</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>4045.444533962831</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3459.155393916675</v>
+        <v>3941.006808105545</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916675</v>
+        <v>3772.070625177638</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916675</v>
+        <v>3621.953985765302</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916675</v>
+        <v>3474.040892182909</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
         <v>4411.546387431056</v>
@@ -6409,25 +6411,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>4744.160657054475</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>4520.375241843982</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U28" t="n">
-        <v>4231.24660305754</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V28" t="n">
-        <v>3976.562114851653</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W28" t="n">
-        <v>3687.144944814692</v>
+        <v>4571.437402977332</v>
       </c>
       <c r="X28" t="n">
-        <v>3459.155393916675</v>
+        <v>4343.447852079315</v>
       </c>
       <c r="Y28" t="n">
-        <v>3459.155393916675</v>
+        <v>4122.655272935785</v>
       </c>
     </row>
     <row r="29">
@@ -6452,55 +6454,55 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6528,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4054.319213292867</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3904.075074409314</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3753.958434996978</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014291</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014291</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>4571.725934227849</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>4571.725934227849</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>4282.308764190889</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>4054.319213292872</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>4054.319213292867</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3803.838860774509</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C34" t="n">
-        <v>3759.690041781067</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D34" t="n">
-        <v>3609.573402368731</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E34" t="n">
-        <v>3609.573402368731</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F34" t="n">
-        <v>3609.573402368731</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368731</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1412.434260546993</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>1412.434260546993</v>
       </c>
       <c r="U34" t="n">
-        <v>4347.940519017357</v>
+        <v>1412.434260546993</v>
       </c>
       <c r="V34" t="n">
-        <v>4093.25603081147</v>
+        <v>1412.434260546993</v>
       </c>
       <c r="W34" t="n">
-        <v>3803.838860774509</v>
+        <v>1123.017090510032</v>
       </c>
       <c r="X34" t="n">
-        <v>3803.838860774509</v>
+        <v>895.0275396120149</v>
       </c>
       <c r="Y34" t="n">
-        <v>3803.838860774509</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6938,25 +6940,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247.3337308726216</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U37" t="n">
-        <v>1240.217519157017</v>
+        <v>4116.280926096332</v>
       </c>
       <c r="V37" t="n">
-        <v>985.5330309511296</v>
+        <v>3861.596437890445</v>
       </c>
       <c r="W37" t="n">
-        <v>696.115860914169</v>
+        <v>3861.596437890445</v>
       </c>
       <c r="X37" t="n">
-        <v>468.1263100161517</v>
+        <v>3861.596437890445</v>
       </c>
       <c r="Y37" t="n">
-        <v>247.3337308726216</v>
+        <v>3640.803858746915</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,40 +7165,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>839.3388155246356</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>584.6543273187488</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>584.6543273187488</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7427,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3906.579989278977</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3906.579989278977</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3756.463349866642</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3756.463349866642</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>4713.115349000397</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>4713.115349000397</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>4423.986710213955</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V43" t="n">
-        <v>4423.986710213955</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W43" t="n">
-        <v>4134.569540176994</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>3906.579989278977</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>3906.579989278977</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,25 +7633,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,13 +7660,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>675.2581065529675</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="C46" t="n">
-        <v>675.2581065529675</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="D46" t="n">
-        <v>675.2581065529675</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="E46" t="n">
-        <v>527.3450129705744</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="W46" t="n">
-        <v>954.8146123150548</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="X46" t="n">
-        <v>726.8250614170374</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="Y46" t="n">
-        <v>675.2581065529675</v>
+        <v>3925.661817631305</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,7 +8534,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>288.4091825776751</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735881</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814762</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9489,13 +9491,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9726,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>96.03744927814557</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>91.23759968302096</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10440,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,22 +10901,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>116.9087390531963</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10923,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>8.04766212204342</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>44.27839330891823</v>
       </c>
     </row>
     <row r="14">
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="15">
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>8.04766212204359</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.27839330891823</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>106.2378200947498</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>97.63006647516687</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24023,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>101.713717219425</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.13484058711316</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,22 +24180,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>64.87523775640014</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>55.95236710010056</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>130.6844047393603</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338454</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>18.50512360391016</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24886,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>123.5394902951202</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037966</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>112.3036200728028</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>30.12558851170036</v>
+        <v>78.54216539558141</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>162.6883953614284</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,19 +25791,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>161.62333061364</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>124.4198406026824</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>141.9668913390327</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>167.5333680366656</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>906495.7753621624</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>906495.7753621622</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>906495.7753621622</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>906495.7753621624</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>906495.7753621624</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621624</v>
       </c>
     </row>
     <row r="16">
@@ -26314,37 +26316,37 @@
         <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852501</v>
+        <v>469234.8716852507</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="G2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="H2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852502</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="L2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="M2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="N2" t="n">
         <v>469234.8716852504</v>
@@ -26353,7 +26355,7 @@
         <v>469234.8716852505</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26418,16 +26420,16 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007484</v>
@@ -26439,25 +26441,25 @@
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-328118.9440753049</v>
       </c>
       <c r="C6" t="n">
-        <v>261848.9351392397</v>
+        <v>261848.9351392395</v>
       </c>
       <c r="D6" t="n">
         <v>261848.9351392395</v>
       </c>
       <c r="E6" t="n">
-        <v>-155829.22239637</v>
+        <v>-155829.2223963692</v>
       </c>
       <c r="F6" t="n">
-        <v>369330.8140805262</v>
+        <v>369330.8140805264</v>
       </c>
       <c r="G6" t="n">
-        <v>369330.8140805262</v>
+        <v>369330.8140805265</v>
       </c>
       <c r="H6" t="n">
         <v>369330.8140805263</v>
       </c>
       <c r="I6" t="n">
-        <v>369330.8140805261</v>
+        <v>369330.8140805264</v>
       </c>
       <c r="J6" t="n">
-        <v>192907.5948879332</v>
+        <v>192907.5948879335</v>
       </c>
       <c r="K6" t="n">
-        <v>369330.8140805262</v>
+        <v>369330.8140805264</v>
       </c>
       <c r="L6" t="n">
-        <v>369330.8140805262</v>
+        <v>369330.8140805264</v>
       </c>
       <c r="M6" t="n">
-        <v>234529.7988466891</v>
+        <v>234529.7988466893</v>
       </c>
       <c r="N6" t="n">
-        <v>369330.8140805262</v>
+        <v>369330.8140805264</v>
       </c>
       <c r="O6" t="n">
-        <v>369330.8140805265</v>
+        <v>369330.8140805264</v>
       </c>
       <c r="P6" t="n">
-        <v>369330.8140805262</v>
+        <v>369330.8140805264</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>242.8205265202438</v>
+        <v>99.10841501723553</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,13 +27435,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>8.415712917443699</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>62.26606264634745</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>91.64852111771478</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>5.623737485458186</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>25.92321192564623</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>120.3625334052645</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>206.3109783070685</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>33.39413243346274</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27913,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -28059,10 +28061,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>213.865060561956</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>152.4095271452412</v>
       </c>
     </row>
     <row r="11">
@@ -29764,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29952,7 +29954,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -31039,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32233,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32318,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32327,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32342,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>598.8335596281414</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330542</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36209,13 +36211,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>621.6037559756885</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>621.6037559756878</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36680,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>378.4011515192537</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>373.6013019241291</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>570.772884818783</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>399.2724412943044</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1763628.205459544</v>
+        <v>1756611.190567832</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>324.0499250651873</v>
       </c>
       <c r="G2" t="n">
-        <v>314.6757550035595</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>160.7782231316287</v>
       </c>
       <c r="D4" t="n">
-        <v>140.1997601007687</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>322.1356489030802</v>
+        <v>333.7577553383029</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>171.4994223265506</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>131.7751099185635</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>220.963363940806</v>
       </c>
       <c r="H8" t="n">
-        <v>290.5286403308944</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.17512620685359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385011</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>116.6264400356941</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431766</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>140.5678108961688</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>102.0005969012859</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>84.20012723754982</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>60.25574836862782</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>80.85852133229878</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,7 +2256,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>135.778987780423</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -2526,7 +2526,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>133.0455722272031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>30.60941330431319</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>14.73664328357096</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>110.0251664512551</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>85.61718991080046</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3480,19 +3480,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>207.6951870029959</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>93.42427375091977</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>6.641648079871485</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3793,7 +3793,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U43" t="n">
-        <v>161.817511795895</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4194,13 +4194,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>110.1707519847953</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>906.9212171249367</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>548.6555185181862</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>548.6555185181862</v>
       </c>
       <c r="F2" t="n">
-        <v>525.2632558086682</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4327,16 +4327,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4430,22 +4430,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>352.67413830922</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1117.513150920515</v>
+        <v>1529.2861479534</v>
       </c>
       <c r="C5" t="n">
-        <v>1117.513150920515</v>
+        <v>1160.323631012988</v>
       </c>
       <c r="D5" t="n">
-        <v>1117.513150920515</v>
+        <v>802.0579324062376</v>
       </c>
       <c r="E5" t="n">
-        <v>1117.513150920515</v>
+        <v>802.0579324062376</v>
       </c>
       <c r="F5" t="n">
-        <v>706.5272461309073</v>
+        <v>391.07202761663</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>1507.652482896327</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>1117.513150920515</v>
+        <v>1915.885988017521</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>565.6058934251438</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>565.6058934251438</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>415.489254012808</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>415.489254012808</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>554.8972444826458</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="V7" t="n">
-        <v>565.6058934251438</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="W7" t="n">
-        <v>565.6058934251438</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X7" t="n">
-        <v>565.6058934251438</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>565.6058934251438</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="C8" t="n">
-        <v>1920.409918978289</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="D8" t="n">
-        <v>1562.144220371539</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="E8" t="n">
-        <v>1176.355967773295</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="F8" t="n">
-        <v>765.3700629836871</v>
+        <v>757.7989949011973</v>
       </c>
       <c r="G8" t="n">
-        <v>347.406254881874</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018223</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="9">
@@ -4859,31 +4859,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4904,22 +4904,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>257.1154545468208</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>257.1154545468208</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>257.1154545468208</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>257.1154545468208</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>257.1154545468208</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,16 +5059,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636247</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2358.217138262063</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1070.116672150741</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>780.9880333642989</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>780.9880333642989</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>780.9880333642989</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>780.9880333642989</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="14">
@@ -5275,16 +5275,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5296,31 +5296,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110095</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555221</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.440640161986</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441948</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>964.1357418247858</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>964.1357418247858</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
         <v>822.1480540508779</v>
@@ -5433,25 +5433,25 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>964.1357418247858</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>964.1357418247858</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="X16" t="n">
-        <v>964.1357418247858</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="Y16" t="n">
-        <v>964.1357418247858</v>
+        <v>1141.200876391121</v>
       </c>
     </row>
     <row r="17">
@@ -5494,67 +5494,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>420.0340835819383</v>
+        <v>738.7219969042602</v>
       </c>
       <c r="C19" t="n">
-        <v>420.0340835819383</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D19" t="n">
-        <v>420.0340835819383</v>
+        <v>503.5547239186419</v>
       </c>
       <c r="E19" t="n">
-        <v>420.0340835819383</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F19" t="n">
-        <v>420.0340835819383</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247858</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>709.4512536188989</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W19" t="n">
-        <v>420.0340835819383</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X19" t="n">
-        <v>420.0340835819383</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y19" t="n">
-        <v>420.0340835819383</v>
+        <v>920.3704617344999</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636248</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4230.423978142505</v>
+        <v>641.8707282937978</v>
       </c>
       <c r="C22" t="n">
-        <v>4061.487795214598</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D22" t="n">
-        <v>3911.371155802262</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E22" t="n">
-        <v>3911.371155802262</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>3764.481208304352</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>3596.305886624173</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014291</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014291</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014291</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V22" t="n">
-        <v>4860.854573014291</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W22" t="n">
-        <v>4860.854573014291</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X22" t="n">
-        <v>4632.865022116274</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="Y22" t="n">
-        <v>4412.072442972744</v>
+        <v>823.5191931240375</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4391.604587469458</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C25" t="n">
-        <v>4222.668404541551</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D25" t="n">
-        <v>4072.551765129215</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>3924.638671546822</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>3777.748724048912</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368732</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4615.390002679953</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>4391.604587469458</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>4391.604587469458</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V25" t="n">
-        <v>4391.604587469458</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W25" t="n">
-        <v>4391.604587469458</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="X25" t="n">
-        <v>4391.604587469458</v>
+        <v>446.729020889808</v>
       </c>
       <c r="Y25" t="n">
-        <v>4391.604587469458</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="26">
@@ -6205,70 +6205,70 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614725</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6311,19 +6311,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3941.006808105545</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>3772.070625177638</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>3621.953985765302</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>3474.040892182909</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014292</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>4860.854573014292</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>4571.437402977332</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4343.447852079315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>4122.655272935785</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,28 +6454,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6487,7 +6487,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>545.4651278373167</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>376.5289449094098</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>376.5289449094098</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>376.5289449094098</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1090.100879744681</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>727.1135926675564</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>727.1135926675564</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,19 +6712,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231263</v>
@@ -6767,28 +6767,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1412.434260546993</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1412.434260546993</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1412.434260546993</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>1412.434260546993</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>1123.017090510032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>895.0275396120149</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,22 +6925,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,10 +6955,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4326.074044281177</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4116.280926096332</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V37" t="n">
-        <v>3861.596437890445</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W37" t="n">
-        <v>3861.596437890445</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X37" t="n">
-        <v>3861.596437890445</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y37" t="n">
-        <v>3640.803858746915</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,19 +7165,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,13 +7192,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7259,19 +7259,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1492.207535123689</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1492.207535123689</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>1492.207535123689</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>1237.523046917802</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>948.1058768808413</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>948.1058768808413</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>727.3132977373111</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7593,19 +7593,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U43" t="n">
-        <v>800.6837097077201</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>545.9992215018333</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
         <v>545.9992215018333</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3925.661817631305</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>3925.661817631305</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3925.661817631305</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>4326.074044281177</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>4036.945405494735</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>3925.661817631305</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>3925.661817631305</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>3925.661817631305</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>3925.661817631305</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>180.0237016735881</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814762</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776759</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,10 +9959,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776745</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>116.9087390531963</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>104.9211210226951</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>8.04766212204359</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>184.5224014353051</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>83.04669386107801</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>106.2378200947498</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>86.38829976632906</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>13.13484058711316</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24186,13 +24186,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>64.87523775640014</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>187.9752400477816</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>130.6844047393603</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>35.39588157167613</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037966</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>112.3036200728028</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>78.54216539558141</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>125.160379601175</v>
       </c>
     </row>
     <row r="38">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>191.2791619037318</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338568</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U43" t="n">
-        <v>124.4198406026824</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>141.9668913390327</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621624</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621624</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>906495.7753621622</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>906495.7753621624</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852507</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="F2" t="n">
         <v>469234.8716852505</v>
@@ -26334,28 +26334,28 @@
         <v>469234.8716852504</v>
       </c>
       <c r="I2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="J2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="K2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="J2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="K2" t="n">
-        <v>469234.8716852505</v>
-      </c>
       <c r="L2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="M2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="O2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="H4" t="n">
         <v>7916.731656007485</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7916.731656007485</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
@@ -26444,16 +26444,16 @@
         <v>7916.731656007485</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007485</v>
@@ -26469,43 +26469,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26527,43 +26527,43 @@
         <v>261848.9351392395</v>
       </c>
       <c r="D6" t="n">
-        <v>261848.9351392395</v>
+        <v>261848.9351392394</v>
       </c>
       <c r="E6" t="n">
-        <v>-155829.2223963692</v>
+        <v>-156803.8136560918</v>
       </c>
       <c r="F6" t="n">
-        <v>369330.8140805264</v>
+        <v>368356.2228208048</v>
       </c>
       <c r="G6" t="n">
-        <v>369330.8140805265</v>
+        <v>368356.2228208047</v>
       </c>
       <c r="H6" t="n">
-        <v>369330.8140805263</v>
+        <v>368356.2228208047</v>
       </c>
       <c r="I6" t="n">
-        <v>369330.8140805264</v>
+        <v>368356.2228208045</v>
       </c>
       <c r="J6" t="n">
-        <v>192907.5948879335</v>
+        <v>191933.0036282116</v>
       </c>
       <c r="K6" t="n">
-        <v>369330.8140805264</v>
+        <v>368356.2228208046</v>
       </c>
       <c r="L6" t="n">
-        <v>369330.8140805264</v>
+        <v>368356.2228208045</v>
       </c>
       <c r="M6" t="n">
-        <v>234529.7988466893</v>
+        <v>233555.2075869675</v>
       </c>
       <c r="N6" t="n">
-        <v>369330.8140805264</v>
+        <v>368356.2228208047</v>
       </c>
       <c r="O6" t="n">
-        <v>369330.8140805264</v>
+        <v>368356.2228208047</v>
       </c>
       <c r="P6" t="n">
-        <v>369330.8140805264</v>
+        <v>368356.2228208047</v>
       </c>
     </row>
   </sheetData>
@@ -26740,34 +26740,34 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>82.82612067652411</v>
       </c>
       <c r="G2" t="n">
-        <v>99.10841501723553</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6.468597966999084</v>
       </c>
       <c r="D4" t="n">
-        <v>8.415712917443699</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27560,7 +27560,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>91.64852111771478</v>
+        <v>80.02641468249209</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,16 +27779,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>40.64611662346834</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>120.3625334052645</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>192.820806079989</v>
       </c>
       <c r="H8" t="n">
-        <v>33.39413243346274</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>152.4095271452412</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29954,7 +29954,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32405,10 +32405,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>130.3926104730631</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>410.0098272511729</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.0367344586621</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330542</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37636,13 +37636,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>399.2724412943044</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686864</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1756611.190567832</v>
+        <v>1761550.453416864</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>324.0499250651873</v>
+        <v>277.3815026099194</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>160.7782231316287</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>8.389005322401447</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>333.7577553383029</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>103.5252649598499</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>171.4994223265506</v>
+        <v>47.14167849255917</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>220.963363940806</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>337.455017953679</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>116.6264400356941</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>75.14894167373197</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>143.0758213165367</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>102.0005969012859</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>84.20012723754982</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>80.49959427800745</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>23.60947099748265</v>
       </c>
       <c r="C22" t="n">
-        <v>80.85852133229878</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>16.50281054245872</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>30.60941330431319</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>18.41938392479707</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>169.7438101404423</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>67.48056817366835</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>110.0251664512551</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>8.627084658457212</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>122.65197883716</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>105.6571329437493</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3480,19 +3480,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>93.42427375091977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>122.623872902726</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>6.641648079871485</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>12.68762643336728</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>122.2151751544596</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1275.883734065348</v>
+        <v>1121.052642832205</v>
       </c>
       <c r="C2" t="n">
-        <v>906.9212171249367</v>
+        <v>752.0901258917932</v>
       </c>
       <c r="D2" t="n">
-        <v>548.6555185181862</v>
+        <v>752.0901258917932</v>
       </c>
       <c r="E2" t="n">
-        <v>548.6555185181862</v>
+        <v>752.0901258917932</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1507.652482896327</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352.67413830922</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>352.67413830922</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="U4" t="n">
-        <v>352.67413830922</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="V4" t="n">
-        <v>352.67413830922</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="W4" t="n">
-        <v>352.67413830922</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="X4" t="n">
-        <v>352.67413830922</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="Y4" t="n">
-        <v>352.67413830922</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1529.2861479534</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>1160.323631012988</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>802.0579324062376</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>802.0579324062376</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>391.07202761663</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2318.914759813859</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1966.146104543745</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>1592.680346282665</v>
       </c>
       <c r="Y5" t="n">
-        <v>1915.885988017521</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4649,40 +4649,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>554.8972444826458</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="T7" t="n">
-        <v>327.5890571512475</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="U7" t="n">
-        <v>327.5890571512475</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="V7" t="n">
-        <v>327.5890571512475</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="W7" t="n">
-        <v>327.5890571512475</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>764.7444956504007</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C8" t="n">
-        <v>764.7444956504007</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D8" t="n">
-        <v>764.7444956504007</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>764.7444956504007</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>757.7989949011973</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="Y8" t="n">
-        <v>764.7444956504007</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,43 +4883,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,16 +5059,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1595.645765494011</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1925.508393158044</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.1954542207687</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C13" t="n">
-        <v>560.1954542207687</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
         <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1070.116672150741</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>780.9880333642989</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>780.9880333642989</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>780.9880333642989</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X13" t="n">
-        <v>780.9880333642989</v>
+        <v>655.1211752119023</v>
       </c>
       <c r="Y13" t="n">
-        <v>560.1954542207687</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="14">
@@ -5278,7 +5278,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5366,13 +5366,13 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2302.237516093321</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W16" t="n">
-        <v>1141.200876391121</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X16" t="n">
-        <v>1141.200876391121</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y16" t="n">
-        <v>1141.200876391121</v>
+        <v>967.1285778917498</v>
       </c>
     </row>
     <row r="17">
@@ -5515,22 +5515,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>738.7219969042602</v>
+        <v>973.0255547109413</v>
       </c>
       <c r="C19" t="n">
-        <v>653.6713633309776</v>
+        <v>804.0893717830344</v>
       </c>
       <c r="D19" t="n">
-        <v>503.5547239186419</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W19" t="n">
-        <v>920.3704617344999</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X19" t="n">
-        <v>920.3704617344999</v>
+        <v>1193.818133854471</v>
       </c>
       <c r="Y19" t="n">
-        <v>920.3704617344999</v>
+        <v>973.0255547109413</v>
       </c>
     </row>
     <row r="20">
@@ -5731,34 +5731,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5767,31 +5767,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>641.8707282937978</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C22" t="n">
-        <v>560.1954542207687</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207687</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E22" t="n">
         <v>412.2823606383756</v>
@@ -5943,19 +5943,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>1044.311772267568</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W22" t="n">
-        <v>1044.311772267568</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X22" t="n">
-        <v>1044.311772267568</v>
+        <v>755.183133481126</v>
       </c>
       <c r="Y22" t="n">
-        <v>823.5191931240375</v>
+        <v>755.183133481126</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
@@ -5986,55 +5986,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>415.8104215925219</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C25" t="n">
-        <v>415.8104215925219</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D25" t="n">
-        <v>415.8104215925219</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W25" t="n">
-        <v>674.7185717878253</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X25" t="n">
-        <v>446.729020889808</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y25" t="n">
-        <v>415.8104215925219</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6311,19 +6311,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>581.3058073983082</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>581.3058073983082</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>581.3058073983082</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>581.3058073983082</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>581.3058073983082</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6484,31 +6484,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>545.4651278373167</v>
+        <v>760.7169704793943</v>
       </c>
       <c r="C31" t="n">
-        <v>376.5289449094098</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D31" t="n">
-        <v>376.5289449094098</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E31" t="n">
-        <v>376.5289449094098</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028587</v>
@@ -6654,19 +6654,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W31" t="n">
-        <v>955.1031435655738</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X31" t="n">
-        <v>727.1135926675564</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y31" t="n">
-        <v>727.1135926675564</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,13 +6712,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6727,22 +6727,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>256.0479578003561</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,31 +6955,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,25 +7004,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>208.7516828383384</v>
+        <v>203.9414681711437</v>
       </c>
       <c r="C37" t="n">
-        <v>208.7516828383384</v>
+        <v>203.9414681711437</v>
       </c>
       <c r="D37" t="n">
-        <v>208.7516828383384</v>
+        <v>203.9414681711437</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>203.9414681711437</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>203.9414681711437</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>1075.21084526296</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>820.5263570570736</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W37" t="n">
-        <v>531.109187020113</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X37" t="n">
-        <v>303.1196361220957</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.7516828383384</v>
+        <v>385.5899330013834</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,25 +7159,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>545.6648329070714</v>
+        <v>390.0157722697342</v>
       </c>
       <c r="C40" t="n">
-        <v>545.6648329070714</v>
+        <v>221.0795893418272</v>
       </c>
       <c r="D40" t="n">
-        <v>395.5481934947356</v>
+        <v>221.0795893418272</v>
       </c>
       <c r="E40" t="n">
-        <v>247.6350999123426</v>
+        <v>221.0795893418272</v>
       </c>
       <c r="F40" t="n">
-        <v>247.6350999123426</v>
+        <v>221.0795893418272</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>221.0795893418272</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1492.207535123689</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1492.207535123689</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1492.207535123689</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V40" t="n">
-        <v>1237.523046917802</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W40" t="n">
-        <v>948.1058768808413</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X40" t="n">
-        <v>948.1058768808413</v>
+        <v>792.456816243504</v>
       </c>
       <c r="Y40" t="n">
-        <v>727.3132977373111</v>
+        <v>571.6642370999739</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,22 +7399,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1379.229518531123</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>110.0328757364144</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,22 +8768,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,16 +9014,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>29.47535963978268</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9959,10 +9959,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>104.9211210226951</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>150.5607137153052</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>36.75615886540055</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23712,16 +23712,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>184.5224014353051</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>83.04669386107801</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>145.2100611110297</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>156.2225091844547</v>
       </c>
       <c r="C22" t="n">
-        <v>86.38829976632906</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>150.7440105561691</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>187.9752400477816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0145787217721</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>82.39383318338574</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>99.76625292495949</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>35.39588157167613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24894,19 +24894,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>158.6197364401706</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25128,7 +25128,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>60.83643551962832</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>125.160379601175</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>26.28995546481015</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>191.2791619037318</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>167.14435374857</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>44.278393308918</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621624</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>906495.7753621624</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>906495.7753621622</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
+        <v>492625.0619185699</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.0619185698</v>
       </c>
-      <c r="D2" t="n">
-        <v>492625.0619185697</v>
-      </c>
       <c r="E2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="F2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="G2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="H2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="I2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="J2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="K2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="L2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="M2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="N2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="O2" t="n">
         <v>469234.8716852503</v>
-      </c>
-      <c r="F2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="G2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="H2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="I2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="J2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="K2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="L2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="M2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="N2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="O2" t="n">
-        <v>469234.8716852505</v>
       </c>
       <c r="P2" t="n">
         <v>469234.8716852505</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="F4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
+        <v>7916.731656007482</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="K4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="J4" t="n">
-        <v>7916.731656007485</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7916.731656007485</v>
-      </c>
       <c r="L4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
         <v>7916.731656007484</v>
@@ -26456,10 +26456,10 @@
         <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="P4" t="n">
         <v>7916.731656007485</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-328118.9440753049</v>
+        <v>-328118.944075305</v>
       </c>
       <c r="C6" t="n">
-        <v>261848.9351392395</v>
+        <v>261848.9351392396</v>
       </c>
       <c r="D6" t="n">
-        <v>261848.9351392394</v>
+        <v>261848.9351392396</v>
       </c>
       <c r="E6" t="n">
-        <v>-156803.8136560918</v>
+        <v>-155926.681522342</v>
       </c>
       <c r="F6" t="n">
-        <v>368356.2228208048</v>
+        <v>369233.3549545541</v>
       </c>
       <c r="G6" t="n">
-        <v>368356.2228208047</v>
+        <v>369233.3549545541</v>
       </c>
       <c r="H6" t="n">
-        <v>368356.2228208047</v>
+        <v>369233.3549545542</v>
       </c>
       <c r="I6" t="n">
-        <v>368356.2228208045</v>
+        <v>369233.3549545541</v>
       </c>
       <c r="J6" t="n">
-        <v>191933.0036282116</v>
+        <v>192810.1357619611</v>
       </c>
       <c r="K6" t="n">
-        <v>368356.2228208046</v>
+        <v>369233.3549545542</v>
       </c>
       <c r="L6" t="n">
-        <v>368356.2228208045</v>
+        <v>369233.3549545543</v>
       </c>
       <c r="M6" t="n">
-        <v>233555.2075869675</v>
+        <v>234432.339720717</v>
       </c>
       <c r="N6" t="n">
-        <v>368356.2228208047</v>
+        <v>369233.3549545542</v>
       </c>
       <c r="O6" t="n">
-        <v>368356.2228208047</v>
+        <v>369233.3549545541</v>
       </c>
       <c r="P6" t="n">
-        <v>368356.2228208047</v>
+        <v>369233.3549545542</v>
       </c>
     </row>
   </sheetData>
@@ -26740,19 +26740,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26767,7 +26767,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26776,10 +26776,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>82.82612067652411</v>
+        <v>129.4945431317921</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>6.468597966999084</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>216.6461001356828</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>80.02641468249209</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27669,13 +27669,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>224.226993510285</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>40.64611662346834</v>
+        <v>165.0038604574597</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>192.820806079989</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>11.78595076373398</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>410.0098272511729</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>236.5687745713073</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35974,16 +35974,16 @@
         <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36679,10 +36679,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,10 +36691,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
